--- a/Code/Results/Cases/Case_3_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.082745275054975</v>
+        <v>0.3565323912770566</v>
       </c>
       <c r="C2">
-        <v>0.1734166012909952</v>
+        <v>0.0870157294438485</v>
       </c>
       <c r="D2">
-        <v>0.1117325764040089</v>
+        <v>0.0383407730807761</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2065302708166641</v>
+        <v>0.4337137820672794</v>
       </c>
       <c r="G2">
-        <v>0.1195006093600917</v>
+        <v>0.2828693052985862</v>
       </c>
       <c r="H2">
-        <v>0.1648918263266594</v>
+        <v>0.4762879322447766</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.15950780071293</v>
+        <v>0.3674132846893485</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.547602830674137</v>
+        <v>1.442789809046218</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9455885270978399</v>
+        <v>0.3122744505098467</v>
       </c>
       <c r="C3">
-        <v>0.1589729507168869</v>
+        <v>0.08211892465156723</v>
       </c>
       <c r="D3">
-        <v>0.0983798474812474</v>
+        <v>0.03392169679352008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2058576035529462</v>
+        <v>0.4386645749807805</v>
       </c>
       <c r="G3">
-        <v>0.12509449492158</v>
+        <v>0.2883860654683765</v>
       </c>
       <c r="H3">
-        <v>0.1729931978217394</v>
+        <v>0.4822841368962756</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.01891029992035</v>
+        <v>0.3210089477768179</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5761214737935489</v>
+        <v>1.466838253406372</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.861267092365722</v>
+        <v>0.2850133965830821</v>
       </c>
       <c r="C4">
-        <v>0.1501213253036724</v>
+        <v>0.07911123558817224</v>
       </c>
       <c r="D4">
-        <v>0.09016271306141022</v>
+        <v>0.03119365216905123</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2061303987931282</v>
+        <v>0.4420525848236174</v>
       </c>
       <c r="G4">
-        <v>0.1291405247651163</v>
+        <v>0.2920509052225526</v>
       </c>
       <c r="H4">
-        <v>0.1783685911023518</v>
+        <v>0.486206100345985</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9324290834573219</v>
+        <v>0.2923896173732032</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5957609311785674</v>
+        <v>1.482688745418123</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8268722171847287</v>
+        <v>0.2738833641419092</v>
       </c>
       <c r="C5">
-        <v>0.146517895069266</v>
+        <v>0.07788543874841025</v>
       </c>
       <c r="D5">
-        <v>0.08680898692562522</v>
+        <v>0.03007832426484924</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.206406942021637</v>
+        <v>0.4435207329425346</v>
       </c>
       <c r="G5">
-        <v>0.1309364960240664</v>
+        <v>0.2936140224865085</v>
       </c>
       <c r="H5">
-        <v>0.180657116693574</v>
+        <v>0.4878647608462607</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8971427638654461</v>
+        <v>0.2806959755789649</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6042796214978168</v>
+        <v>1.489420455430256</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8211587899518236</v>
+        <v>0.2720339906698257</v>
       </c>
       <c r="C6">
-        <v>0.1459197550738907</v>
+        <v>0.07768189125870606</v>
       </c>
       <c r="D6">
-        <v>0.08625177585355459</v>
+        <v>0.02989290795011357</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2064626481440186</v>
+        <v>0.4437698014660505</v>
       </c>
       <c r="G6">
-        <v>0.1312434181359627</v>
+        <v>0.2938777809662696</v>
       </c>
       <c r="H6">
-        <v>0.1810429626648755</v>
+        <v>0.4881438302120173</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8912806452267432</v>
+        <v>0.2787524067297795</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6057247083829438</v>
+        <v>1.490554702413021</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8608033736526863</v>
+        <v>0.2848633767373201</v>
       </c>
       <c r="C7">
-        <v>0.150072713988294</v>
+        <v>0.07909470446769262</v>
       </c>
       <c r="D7">
-        <v>0.09011750517063177</v>
+        <v>0.03117862505813918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2061334679091082</v>
+        <v>0.4420720305403236</v>
       </c>
       <c r="G7">
-        <v>0.1291641584080452</v>
+        <v>0.2920717040569372</v>
       </c>
       <c r="H7">
-        <v>0.1783990618169895</v>
+        <v>0.4862282249339422</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9319533875208776</v>
+        <v>0.2922320373204457</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5958737558901319</v>
+        <v>1.482778428562817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.035471747624769</v>
+        <v>0.3412906837952221</v>
       </c>
       <c r="C8">
-        <v>0.1684325852504713</v>
+        <v>0.08532759553324354</v>
       </c>
       <c r="D8">
-        <v>0.1071320675227554</v>
+        <v>0.0368201715699854</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2061516535898029</v>
+        <v>0.435348514862401</v>
       </c>
       <c r="G8">
-        <v>0.1212984759403604</v>
+        <v>0.2847138114472969</v>
       </c>
       <c r="H8">
-        <v>0.1676001768982083</v>
+        <v>0.4783055627035004</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.111058011442196</v>
+        <v>0.3514399121341683</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5569820194602926</v>
+        <v>1.450856452893781</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.377474752334365</v>
+        <v>0.4512273422271562</v>
       </c>
       <c r="C9">
-        <v>0.2045987954645625</v>
+        <v>0.09753742352377515</v>
       </c>
       <c r="D9">
-        <v>0.1403774492538616</v>
+        <v>0.04776379574951761</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2119609483799643</v>
+        <v>0.4249290310035434</v>
       </c>
       <c r="G9">
-        <v>0.1110315087676597</v>
+        <v>0.2724923605692133</v>
       </c>
       <c r="H9">
-        <v>0.1497396577384436</v>
+        <v>0.4646750434847569</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.461362450303625</v>
+        <v>0.4665067009786696</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4985372886913169</v>
+        <v>1.39687388064192</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.628932436702655</v>
+        <v>0.5315269208230404</v>
       </c>
       <c r="C10">
-        <v>0.2313153333856377</v>
+        <v>0.1064947644251362</v>
       </c>
       <c r="D10">
-        <v>0.1647712059325812</v>
+        <v>0.05572839218545766</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2202297150855799</v>
+        <v>0.4189632658856084</v>
       </c>
       <c r="G10">
-        <v>0.1070762184663892</v>
+        <v>0.2648660387806601</v>
       </c>
       <c r="H10">
-        <v>0.1388315448464894</v>
+        <v>0.4558214411721053</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.718643741216539</v>
+        <v>0.5503761351103265</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4678068154111656</v>
+        <v>1.362478717769122</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.743489657801831</v>
+        <v>0.5679483693098462</v>
       </c>
       <c r="C11">
-        <v>0.243512158751173</v>
+        <v>0.1105657407492231</v>
       </c>
       <c r="D11">
-        <v>0.1758716275517003</v>
+        <v>0.05933469209526265</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2249717551841925</v>
+        <v>0.4166169077659561</v>
       </c>
       <c r="G11">
-        <v>0.1061590390140523</v>
+        <v>0.2616918757179789</v>
       </c>
       <c r="H11">
-        <v>0.1343946644463259</v>
+        <v>0.4520455156788756</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.835783218322462</v>
+        <v>0.5883778105118722</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4567902460319999</v>
+        <v>1.347977648447909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.786903983890738</v>
+        <v>0.5817240751320867</v>
       </c>
       <c r="C12">
-        <v>0.24813796326805</v>
+        <v>0.1121066635212173</v>
       </c>
       <c r="D12">
-        <v>0.1800764119507647</v>
+        <v>0.06069781854259304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2269182578923932</v>
+        <v>0.4157813089446236</v>
       </c>
       <c r="G12">
-        <v>0.1059476801105816</v>
+        <v>0.2605324636579809</v>
       </c>
       <c r="H12">
-        <v>0.1327940386975328</v>
+        <v>0.4506518440511584</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.880165122476456</v>
+        <v>0.6027455716649683</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4530722543032653</v>
+        <v>1.342651440820092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.777552255661931</v>
+        <v>0.5787579697140188</v>
       </c>
       <c r="C13">
-        <v>0.2471413812652798</v>
+        <v>0.1117748299306811</v>
       </c>
       <c r="D13">
-        <v>0.1791707657834394</v>
+        <v>0.06040435738478322</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2264921753577696</v>
+        <v>0.4159589155426673</v>
       </c>
       <c r="G13">
-        <v>0.1059870027876642</v>
+        <v>0.2607802680388929</v>
       </c>
       <c r="H13">
-        <v>0.1331351592828298</v>
+        <v>0.450950386537464</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.870605476010326</v>
+        <v>0.5996522394912915</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4538523525973659</v>
+        <v>1.34379119005375</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.747060640308803</v>
+        <v>0.5690820367873926</v>
       </c>
       <c r="C14">
-        <v>0.2438925781500245</v>
+        <v>0.1106925274929296</v>
       </c>
       <c r="D14">
-        <v>0.1762175270705626</v>
+        <v>0.0594468879121024</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2251288149645987</v>
+        <v>0.4165471016339666</v>
       </c>
       <c r="G14">
-        <v>0.1061388716103977</v>
+        <v>0.2615956361273817</v>
       </c>
       <c r="H14">
-        <v>0.1342613625590303</v>
+        <v>0.4519301321489166</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.839434013551596</v>
+        <v>0.5895603141636059</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4564751068324995</v>
+        <v>1.347536148839069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.728388376842531</v>
+        <v>0.5631530986667599</v>
       </c>
       <c r="C15">
-        <v>0.241903549030468</v>
+        <v>0.1100294953164536</v>
       </c>
       <c r="D15">
-        <v>0.1744087758761879</v>
+        <v>0.05886008212222293</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2243136551393832</v>
+        <v>0.4169142758928288</v>
       </c>
       <c r="G15">
-        <v>0.1062498803291945</v>
+        <v>0.2621006212627606</v>
       </c>
       <c r="H15">
-        <v>0.1349616732671279</v>
+        <v>0.4525349677432899</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.820343967774761</v>
+        <v>0.5833757410907197</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4581415583375446</v>
+        <v>1.349851545689404</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.621450057121621</v>
+        <v>0.529144459883355</v>
       </c>
       <c r="C16">
-        <v>0.2305191895722629</v>
+        <v>0.1062286299970197</v>
       </c>
       <c r="D16">
-        <v>0.1640459048878711</v>
+        <v>0.05549236638519517</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2199403678117804</v>
+        <v>0.4191240069540285</v>
       </c>
       <c r="G16">
-        <v>0.107154675976453</v>
+        <v>0.2650794278430268</v>
       </c>
       <c r="H16">
-        <v>0.1391324114171439</v>
+        <v>0.456073270620152</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.71099120387305</v>
+        <v>0.5478895181248333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4685887268409346</v>
+        <v>1.363449473509007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.555896646867723</v>
+        <v>0.5082531651602551</v>
       </c>
       <c r="C17">
-        <v>0.2235469722727572</v>
+        <v>0.1038958682163269</v>
       </c>
       <c r="D17">
-        <v>0.1576900755001844</v>
+        <v>0.05342201293727555</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2175154409174169</v>
+        <v>0.4205737810025312</v>
       </c>
       <c r="G17">
-        <v>0.1079419932011092</v>
+        <v>0.2669825094076685</v>
       </c>
       <c r="H17">
-        <v>0.1418283303442038</v>
+        <v>0.4583083559745447</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.643939016741655</v>
+        <v>0.5260805361961332</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.475775813642926</v>
+        <v>1.372084968351317</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.518207227539762</v>
+        <v>0.4962270045563173</v>
       </c>
       <c r="C18">
-        <v>0.2195407585741123</v>
+        <v>0.1025537786651682</v>
       </c>
       <c r="D18">
-        <v>0.1540346576616116</v>
+        <v>0.05222962059944791</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.216212362948923</v>
+        <v>0.4214422392721104</v>
       </c>
       <c r="G18">
-        <v>0.108477290474049</v>
+        <v>0.2681048784021272</v>
       </c>
       <c r="H18">
-        <v>0.1434281413528957</v>
+        <v>0.4596176014871496</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.605381280062545</v>
+        <v>0.5135224344885501</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4801867705653393</v>
+        <v>1.37715967422821</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.505448554031744</v>
+        <v>0.4921534558137068</v>
       </c>
       <c r="C19">
-        <v>0.218184987815377</v>
+        <v>0.1020993145296103</v>
       </c>
       <c r="D19">
-        <v>0.1527970223420709</v>
+        <v>0.05182562815552672</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2157866186490409</v>
+        <v>0.4217422224330107</v>
       </c>
       <c r="G19">
-        <v>0.108672424813598</v>
+        <v>0.2684896579133884</v>
       </c>
       <c r="H19">
-        <v>0.1439781402241991</v>
+        <v>0.4600649569960957</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.59232755321716</v>
+        <v>0.509268075150203</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4817270239831828</v>
+        <v>1.378896387103417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.56287328026113</v>
+        <v>0.5104781247239885</v>
       </c>
       <c r="C20">
-        <v>0.2242887542208081</v>
+        <v>0.1041442314878367</v>
       </c>
       <c r="D20">
-        <v>0.158366629179099</v>
+        <v>0.05364256968017855</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2177640211515239</v>
+        <v>0.4204158699855256</v>
       </c>
       <c r="G20">
-        <v>0.1078495839304949</v>
+        <v>0.2667770483391649</v>
       </c>
       <c r="H20">
-        <v>0.1415362260135282</v>
+        <v>0.4580679761198354</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.651075850021556</v>
+        <v>0.5284036110796819</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4749818578911231</v>
+        <v>1.371154546231381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.756015762263729</v>
+        <v>0.5719245424337203</v>
       </c>
       <c r="C21">
-        <v>0.2448466293204206</v>
+        <v>0.111010445077909</v>
       </c>
       <c r="D21">
-        <v>0.1770849232235747</v>
+        <v>0.05972818842302274</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2255250937061959</v>
+        <v>0.4163729004416794</v>
       </c>
       <c r="G21">
-        <v>0.1060904990854539</v>
+        <v>0.2613549861737212</v>
       </c>
       <c r="H21">
-        <v>0.1339283781717384</v>
+        <v>0.4516413748925103</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.848589106910424</v>
+        <v>0.5925251794301971</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4556921975515138</v>
+        <v>1.346431682219418</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.882448761151096</v>
+        <v>0.6119878736706141</v>
       </c>
       <c r="C22">
-        <v>0.258324423983268</v>
+        <v>0.1154939630475553</v>
       </c>
       <c r="D22">
-        <v>0.1893263623937571</v>
+        <v>0.0636908767663158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2314812883829802</v>
+        <v>0.4140390530394313</v>
       </c>
       <c r="G22">
-        <v>0.1057378958719326</v>
+        <v>0.2580595770849499</v>
       </c>
       <c r="H22">
-        <v>0.1294217546793703</v>
+        <v>0.4476521619717175</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.977818508667468</v>
+        <v>0.6342998831738669</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4457440311257272</v>
+        <v>1.331235942571197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.814947053312153</v>
+        <v>0.5906143460797466</v>
       </c>
       <c r="C23">
-        <v>0.2511269098345679</v>
+        <v>0.1131014281229881</v>
       </c>
       <c r="D23">
-        <v>0.1827918766798149</v>
+        <v>0.06157727921646483</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2282181019884533</v>
+        <v>0.4152564237571212</v>
       </c>
       <c r="G23">
-        <v>0.1058500112689842</v>
+        <v>0.259795640295323</v>
       </c>
       <c r="H23">
-        <v>0.1317830496095951</v>
+        <v>0.4497619766379088</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.908830028812275</v>
+        <v>0.6120163669223473</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4508007248107617</v>
+        <v>1.339258060495155</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.559719150929254</v>
+        <v>0.5094722686472153</v>
       </c>
       <c r="C24">
-        <v>0.2239533877952624</v>
+        <v>0.1040319494145621</v>
       </c>
       <c r="D24">
-        <v>0.1580607635767421</v>
+        <v>0.05354286257006891</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2176513551781269</v>
+        <v>0.4204871526533793</v>
       </c>
       <c r="G24">
-        <v>0.1078911053835299</v>
+        <v>0.2668698492658486</v>
       </c>
       <c r="H24">
-        <v>0.141668131280305</v>
+        <v>0.458176576268837</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.647849314987553</v>
+        <v>0.5273534106137276</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4753399383246375</v>
+        <v>1.371574847317817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.284959495276098</v>
+        <v>0.4215668316842596</v>
       </c>
       <c r="C25">
-        <v>0.1947929200142227</v>
+        <v>0.09423627687593239</v>
       </c>
       <c r="D25">
-        <v>0.1313924086623786</v>
+        <v>0.04481633887718317</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2097230467927922</v>
+        <v>0.4274513525355275</v>
       </c>
       <c r="G25">
-        <v>0.1132123815739483</v>
+        <v>0.2755615347103699</v>
       </c>
       <c r="H25">
-        <v>0.154197116477139</v>
+        <v>0.4681585436053268</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.366647396617623</v>
+        <v>0.4354931591095692</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5123055002567227</v>
+        <v>1.410553798053201</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3565323912770566</v>
+        <v>1.082745275054862</v>
       </c>
       <c r="C2">
-        <v>0.0870157294438485</v>
+        <v>0.1734166012907821</v>
       </c>
       <c r="D2">
-        <v>0.0383407730807761</v>
+        <v>0.111732576404151</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4337137820672794</v>
+        <v>0.2065302708166605</v>
       </c>
       <c r="G2">
-        <v>0.2828693052985862</v>
+        <v>0.1195006093600881</v>
       </c>
       <c r="H2">
-        <v>0.4762879322447766</v>
+        <v>0.1648918263266594</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3674132846893485</v>
+        <v>1.15950780071293</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.442789809046218</v>
+        <v>0.5476028306741227</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3122744505098467</v>
+        <v>0.945588527097982</v>
       </c>
       <c r="C3">
-        <v>0.08211892465156723</v>
+        <v>0.1589729507171285</v>
       </c>
       <c r="D3">
-        <v>0.03392169679352008</v>
+        <v>0.0983798474812545</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4386645749807805</v>
+        <v>0.2058576035529747</v>
       </c>
       <c r="G3">
-        <v>0.2883860654683765</v>
+        <v>0.1250944949216368</v>
       </c>
       <c r="H3">
-        <v>0.4822841368962756</v>
+        <v>0.1729931978218531</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3210089477768179</v>
+        <v>1.01891029992035</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.466838253406372</v>
+        <v>0.5761214737935418</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2850133965830821</v>
+        <v>0.8612670923656935</v>
       </c>
       <c r="C4">
-        <v>0.07911123558817224</v>
+        <v>0.1501213253038856</v>
       </c>
       <c r="D4">
-        <v>0.03119365216905123</v>
+        <v>0.09016271306163048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4420525848236174</v>
+        <v>0.2061303987931353</v>
       </c>
       <c r="G4">
-        <v>0.2920509052225526</v>
+        <v>0.1291405247651163</v>
       </c>
       <c r="H4">
-        <v>0.486206100345985</v>
+        <v>0.1783685911023554</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2923896173732032</v>
+        <v>0.9324290834574072</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.482688745418123</v>
+        <v>0.5957609311785887</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2738833641419092</v>
+        <v>0.8268722171847571</v>
       </c>
       <c r="C5">
-        <v>0.07788543874841025</v>
+        <v>0.1465178950692945</v>
       </c>
       <c r="D5">
-        <v>0.03007832426484924</v>
+        <v>0.08680898692551864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4435207329425346</v>
+        <v>0.2064069420216015</v>
       </c>
       <c r="G5">
-        <v>0.2936140224865085</v>
+        <v>0.1309364960240522</v>
       </c>
       <c r="H5">
-        <v>0.4878647608462607</v>
+        <v>0.1806571166935633</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2806959755789649</v>
+        <v>0.8971427638655598</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.489420455430256</v>
+        <v>0.6042796214977315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2720339906698257</v>
+        <v>0.8211587899518236</v>
       </c>
       <c r="C6">
-        <v>0.07768189125870606</v>
+        <v>0.145919755074118</v>
       </c>
       <c r="D6">
-        <v>0.02989290795011357</v>
+        <v>0.08625177585321353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4437698014660505</v>
+        <v>0.2064626481440222</v>
       </c>
       <c r="G6">
-        <v>0.2938777809662696</v>
+        <v>0.1312434181360196</v>
       </c>
       <c r="H6">
-        <v>0.4881438302120173</v>
+        <v>0.1810429626648684</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2787524067297795</v>
+        <v>0.8912806452267432</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.490554702413021</v>
+        <v>0.6057247083830006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2848633767373201</v>
+        <v>0.8608033736526011</v>
       </c>
       <c r="C7">
-        <v>0.07909470446769262</v>
+        <v>0.1500727139881093</v>
       </c>
       <c r="D7">
-        <v>0.03117862505813918</v>
+        <v>0.0901175051705394</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4420720305403236</v>
+        <v>0.2061334679091047</v>
       </c>
       <c r="G7">
-        <v>0.2920717040569372</v>
+        <v>0.1291641584081056</v>
       </c>
       <c r="H7">
-        <v>0.4862282249339422</v>
+        <v>0.1783990618168794</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2922320373204457</v>
+        <v>0.9319533875208776</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.482778428562817</v>
+        <v>0.5958737558901248</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3412906837952221</v>
+        <v>1.035471747624683</v>
       </c>
       <c r="C8">
-        <v>0.08532759553324354</v>
+        <v>0.1684325852504429</v>
       </c>
       <c r="D8">
-        <v>0.0368201715699854</v>
+        <v>0.1071320675227412</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.435348514862401</v>
+        <v>0.2061516535898029</v>
       </c>
       <c r="G8">
-        <v>0.2847138114472969</v>
+        <v>0.1212984759402964</v>
       </c>
       <c r="H8">
-        <v>0.4783055627035004</v>
+        <v>0.1676001768980981</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3514399121341683</v>
+        <v>1.111058011442196</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.450856452893781</v>
+        <v>0.5569820194603068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4512273422271562</v>
+        <v>1.377474752334393</v>
       </c>
       <c r="C9">
-        <v>0.09753742352377515</v>
+        <v>0.2045987954645625</v>
       </c>
       <c r="D9">
-        <v>0.04776379574951761</v>
+        <v>0.1403774492538332</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4249290310035434</v>
+        <v>0.2119609483799643</v>
       </c>
       <c r="G9">
-        <v>0.2724923605692133</v>
+        <v>0.1110315087677165</v>
       </c>
       <c r="H9">
-        <v>0.4646750434847569</v>
+        <v>0.1497396577385608</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4665067009786696</v>
+        <v>1.461362450303625</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.39687388064192</v>
+        <v>0.498537288691324</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5315269208230404</v>
+        <v>1.628932436702513</v>
       </c>
       <c r="C10">
-        <v>0.1064947644251362</v>
+        <v>0.2313153333858935</v>
       </c>
       <c r="D10">
-        <v>0.05572839218545766</v>
+        <v>0.1647712059325528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4189632658856084</v>
+        <v>0.2202297150855799</v>
       </c>
       <c r="G10">
-        <v>0.2648660387806601</v>
+        <v>0.1070762184663181</v>
       </c>
       <c r="H10">
-        <v>0.4558214411721053</v>
+        <v>0.1388315448464894</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5503761351103265</v>
+        <v>1.718643741216539</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.362478717769122</v>
+        <v>0.4678068154111372</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5679483693098462</v>
+        <v>1.743489657801831</v>
       </c>
       <c r="C11">
-        <v>0.1105657407492231</v>
+        <v>0.243512158751372</v>
       </c>
       <c r="D11">
-        <v>0.05933469209526265</v>
+        <v>0.1758716275516576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4166169077659561</v>
+        <v>0.224971755184221</v>
       </c>
       <c r="G11">
-        <v>0.2616918757179789</v>
+        <v>0.106159039014095</v>
       </c>
       <c r="H11">
-        <v>0.4520455156788756</v>
+        <v>0.1343946644464395</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5883778105118722</v>
+        <v>1.835783218322376</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.347977648447909</v>
+        <v>0.4567902460319573</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5817240751320867</v>
+        <v>1.786903983890625</v>
       </c>
       <c r="C12">
-        <v>0.1121066635212173</v>
+        <v>0.2481379632680927</v>
       </c>
       <c r="D12">
-        <v>0.06069781854259304</v>
+        <v>0.1800764119509068</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4157813089446236</v>
+        <v>0.2269182578923932</v>
       </c>
       <c r="G12">
-        <v>0.2605324636579809</v>
+        <v>0.1059476801105106</v>
       </c>
       <c r="H12">
-        <v>0.4506518440511584</v>
+        <v>0.1327940386975186</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6027455716649683</v>
+        <v>1.880165122476456</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.342651440820092</v>
+        <v>0.453072254303251</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5787579697140188</v>
+        <v>1.777552255662073</v>
       </c>
       <c r="C13">
-        <v>0.1117748299306811</v>
+        <v>0.2471413812652514</v>
       </c>
       <c r="D13">
-        <v>0.06040435738478322</v>
+        <v>0.1791707657834678</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4159589155426673</v>
+        <v>0.2264921753577696</v>
       </c>
       <c r="G13">
-        <v>0.2607802680388929</v>
+        <v>0.105987002787721</v>
       </c>
       <c r="H13">
-        <v>0.450950386537464</v>
+        <v>0.1331351592828227</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5996522394912915</v>
+        <v>1.870605476010297</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.34379119005375</v>
+        <v>0.4538523525973659</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5690820367873926</v>
+        <v>1.747060640308831</v>
       </c>
       <c r="C14">
-        <v>0.1106925274929296</v>
+        <v>0.2438925781497829</v>
       </c>
       <c r="D14">
-        <v>0.0594468879121024</v>
+        <v>0.1762175270706337</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4165471016339666</v>
+        <v>0.2251288149645987</v>
       </c>
       <c r="G14">
-        <v>0.2615956361273817</v>
+        <v>0.1061388716103053</v>
       </c>
       <c r="H14">
-        <v>0.4519301321489166</v>
+        <v>0.134261362559144</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5895603141636059</v>
+        <v>1.839434013551767</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.347536148839069</v>
+        <v>0.4564751068324995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5631530986667599</v>
+        <v>1.728388376842531</v>
       </c>
       <c r="C15">
-        <v>0.1100294953164536</v>
+        <v>0.2419035490302264</v>
       </c>
       <c r="D15">
-        <v>0.05886008212222293</v>
+        <v>0.1744087758762305</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4169142758928288</v>
+        <v>0.2243136551393832</v>
       </c>
       <c r="G15">
-        <v>0.2621006212627606</v>
+        <v>0.1062498803292655</v>
       </c>
       <c r="H15">
-        <v>0.4525349677432899</v>
+        <v>0.1349616732670142</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5833757410907197</v>
+        <v>1.820343967774789</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.349851545689404</v>
+        <v>0.4581415583376014</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.529144459883355</v>
+        <v>1.621450057121791</v>
       </c>
       <c r="C16">
-        <v>0.1062286299970197</v>
+        <v>0.2305191895727177</v>
       </c>
       <c r="D16">
-        <v>0.05549236638519517</v>
+        <v>0.1640459048879848</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4191240069540285</v>
+        <v>0.2199403678117804</v>
       </c>
       <c r="G16">
-        <v>0.2650794278430268</v>
+        <v>0.107154675976453</v>
       </c>
       <c r="H16">
-        <v>0.456073270620152</v>
+        <v>0.139132411417151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5478895181248333</v>
+        <v>1.710991203873107</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.363449473509007</v>
+        <v>0.4685887268409914</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5082531651602551</v>
+        <v>1.55589664686795</v>
       </c>
       <c r="C17">
-        <v>0.1038958682163269</v>
+        <v>0.2235469722727856</v>
       </c>
       <c r="D17">
-        <v>0.05342201293727555</v>
+        <v>0.1576900755002981</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4205737810025312</v>
+        <v>0.2175154409174169</v>
       </c>
       <c r="G17">
-        <v>0.2669825094076685</v>
+        <v>0.1079419932011092</v>
       </c>
       <c r="H17">
-        <v>0.4583083559745447</v>
+        <v>0.1418283303442038</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5260805361961332</v>
+        <v>1.643939016741598</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.372084968351317</v>
+        <v>0.4757758136429118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4962270045563173</v>
+        <v>1.518207227539534</v>
       </c>
       <c r="C18">
-        <v>0.1025537786651682</v>
+        <v>0.219540758574098</v>
       </c>
       <c r="D18">
-        <v>0.05222962059944791</v>
+        <v>0.1540346576619385</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4214422392721104</v>
+        <v>0.216212362948923</v>
       </c>
       <c r="G18">
-        <v>0.2681048784021272</v>
+        <v>0.108477290474049</v>
       </c>
       <c r="H18">
-        <v>0.4596176014871496</v>
+        <v>0.1434281413528886</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5135224344885501</v>
+        <v>1.605381280062545</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.37715967422821</v>
+        <v>0.4801867705653393</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4921534558137068</v>
+        <v>1.50544855403183</v>
       </c>
       <c r="C19">
-        <v>0.1020993145296103</v>
+        <v>0.218184987815647</v>
       </c>
       <c r="D19">
-        <v>0.05182562815552672</v>
+        <v>0.1527970223421704</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4217422224330107</v>
+        <v>0.2157866186490409</v>
       </c>
       <c r="G19">
-        <v>0.2684896579133884</v>
+        <v>0.1086724248135482</v>
       </c>
       <c r="H19">
-        <v>0.4600649569960957</v>
+        <v>0.1439781402240818</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.509268075150203</v>
+        <v>1.592327553217302</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.378896387103417</v>
+        <v>0.4817270239832254</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5104781247239885</v>
+        <v>1.562873280261186</v>
       </c>
       <c r="C20">
-        <v>0.1041442314878367</v>
+        <v>0.2242887542205665</v>
       </c>
       <c r="D20">
-        <v>0.05364256968017855</v>
+        <v>0.158366629179099</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4204158699855256</v>
+        <v>0.2177640211514955</v>
       </c>
       <c r="G20">
-        <v>0.2667770483391649</v>
+        <v>0.1078495839304452</v>
       </c>
       <c r="H20">
-        <v>0.4580679761198354</v>
+        <v>0.1415362260135282</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5284036110796819</v>
+        <v>1.65107585002167</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.371154546231381</v>
+        <v>0.4749818578911231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5719245424337203</v>
+        <v>1.756015762263701</v>
       </c>
       <c r="C21">
-        <v>0.111010445077909</v>
+        <v>0.244846629320449</v>
       </c>
       <c r="D21">
-        <v>0.05972818842302274</v>
+        <v>0.1770849232236884</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4163729004416794</v>
+        <v>0.2255250937062243</v>
       </c>
       <c r="G21">
-        <v>0.2613549861737212</v>
+        <v>0.1060904990854468</v>
       </c>
       <c r="H21">
-        <v>0.4516413748925103</v>
+        <v>0.1339283781717313</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5925251794301971</v>
+        <v>1.848589106910424</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.346431682219418</v>
+        <v>0.4556921975515138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6119878736706141</v>
+        <v>1.882448761151124</v>
       </c>
       <c r="C22">
-        <v>0.1154939630475553</v>
+        <v>0.2583244239833107</v>
       </c>
       <c r="D22">
-        <v>0.0636908767663158</v>
+        <v>0.1893263623937997</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4140390530394313</v>
+        <v>0.2314812883829731</v>
       </c>
       <c r="G22">
-        <v>0.2580595770849499</v>
+        <v>0.1057378958719326</v>
       </c>
       <c r="H22">
-        <v>0.4476521619717175</v>
+        <v>0.1294217546793703</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6342998831738669</v>
+        <v>1.97781850866744</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.331235942571197</v>
+        <v>0.4457440311257557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5906143460797466</v>
+        <v>1.814947053312267</v>
       </c>
       <c r="C23">
-        <v>0.1131014281229881</v>
+        <v>0.2511269098348095</v>
       </c>
       <c r="D23">
-        <v>0.06157727921646483</v>
+        <v>0.1827918766798433</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4152564237571212</v>
+        <v>0.228218101988432</v>
       </c>
       <c r="G23">
-        <v>0.259795640295323</v>
+        <v>0.1058500112689202</v>
       </c>
       <c r="H23">
-        <v>0.4497619766379088</v>
+        <v>0.131783049609588</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6120163669223473</v>
+        <v>1.908830028812304</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.339258060495155</v>
+        <v>0.4508007248108186</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5094722686472153</v>
+        <v>1.559719150929112</v>
       </c>
       <c r="C24">
-        <v>0.1040319494145621</v>
+        <v>0.2239533877950208</v>
       </c>
       <c r="D24">
-        <v>0.05354286257006891</v>
+        <v>0.15806076357687</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4204871526533793</v>
+        <v>0.2176513551781554</v>
       </c>
       <c r="G24">
-        <v>0.2668698492658486</v>
+        <v>0.1078911053835299</v>
       </c>
       <c r="H24">
-        <v>0.458176576268837</v>
+        <v>0.1416681312804187</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5273534106137276</v>
+        <v>1.64784931498744</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.371574847317817</v>
+        <v>0.4753399383246375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4215668316842596</v>
+        <v>1.284959495276098</v>
       </c>
       <c r="C25">
-        <v>0.09423627687593239</v>
+        <v>0.1947929200142084</v>
       </c>
       <c r="D25">
-        <v>0.04481633887718317</v>
+        <v>0.1313924086625917</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4274513525355275</v>
+        <v>0.2097230467927638</v>
       </c>
       <c r="G25">
-        <v>0.2755615347103699</v>
+        <v>0.1132123815739483</v>
       </c>
       <c r="H25">
-        <v>0.4681585436053268</v>
+        <v>0.1541971164771354</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4354931591095692</v>
+        <v>1.366647396617765</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.410553798053201</v>
+        <v>0.5123055002567085</v>
       </c>
     </row>
   </sheetData>
